--- a/src/Cotizaciones/REC2003_20123456789.xlsx
+++ b/src/Cotizaciones/REC2003_20123456789.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo-patitas\src\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EE747A-D019-496A-B1FD-8681DC6EE0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562F67E3-F4E2-4940-962A-046E456CC041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="1692" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="1392" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COTIZACION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Datos del Cliente</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Proveedor 2</t>
+  </si>
+  <si>
+    <t>Cotizacion N°</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -291,12 +294,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -688,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,10 +705,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="16">
+        <v>21630</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -758,7 +768,7 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>45992</v>
       </c>
     </row>
@@ -900,13 +910,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="11"/>

--- a/src/Cotizaciones/REC2003_20123456789.xlsx
+++ b/src/Cotizaciones/REC2003_20123456789.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo-patitas\src\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562F67E3-F4E2-4940-962A-046E456CC041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98082CA6-3912-4254-A10A-B281D27EE41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1392" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4752" yWindow="2784" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COTIZACION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Datos del Cliente</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>Cotizacion N°</t>
+  </si>
+  <si>
+    <t>Cepillo Dental Para Perro Medium</t>
+  </si>
+  <si>
+    <t>Dentastix para perros pequeños 3pzas</t>
+  </si>
+  <si>
+    <t>Hueso Dental Chiquito</t>
+  </si>
+  <si>
+    <t>Shampoo antipulgas 500ml</t>
   </si>
 </sst>
 </file>
@@ -259,7 +271,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -296,6 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -392,14 +405,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Detalle" displayName="Detalle" ref="A16:E19">
-  <autoFilter ref="A16:E19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Detalle" displayName="Detalle" ref="A16:E23">
+  <autoFilter ref="A16:E23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:E23">
+    <sortCondition ref="B16:B23"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id_Producto" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripcion" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CantidadOfertada" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PrecioUnitario"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SubtotalLinea"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SubtotalLinea">
+      <calculatedColumnFormula>IFERROR(C17*D17,"")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -690,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,10 +723,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
@@ -830,106 +848,178 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4">
         <v>9</v>
       </c>
       <c r="E17" s="5">
         <f>IFERROR(C17*D17,"")</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4">
         <v>50</v>
       </c>
       <c r="D18" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="5">
         <f>IFERROR(C18*D18,"")</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" s="5">
         <f>IFERROR(C19*D19,"")</f>
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="2" t="s">
+    <row r="20" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>1033</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5">
+        <f>IFERROR(C20*D20,"")</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>1032</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="4">
+        <v>40</v>
+      </c>
+      <c r="D21" s="4">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5">
+        <f>IFERROR(C21*D21,"")</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>1033</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4">
+        <v>50</v>
+      </c>
+      <c r="D22" s="4">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5">
+        <f>IFERROR(C22*D22,"")</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>1040</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4">
+        <v>80</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5">
+        <f>IFERROR(C23*D23,"")</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="6">
-        <f>SUM(E17:E19)</f>
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="2" t="s">
+      <c r="E25" s="6">
+        <f>SUM(E17:E23)</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="6">
-        <f>ROUND(E21*0.18,2)</f>
-        <v>199.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="2" t="s">
+      <c r="E26" s="6">
+        <f>ROUND(E25*0.18,2)</f>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="7">
-        <f>E21+E22</f>
-        <v>1309.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="E27" s="7">
+        <f>E25+E26</f>
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="11"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="34" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="11"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="11"/>
+      <c r="D35" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/src/Cotizaciones/REC2003_20123456789.xlsx
+++ b/src/Cotizaciones/REC2003_20123456789.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo-patitas\src\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98082CA6-3912-4254-A10A-B281D27EE41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B89C54E-096B-4C16-B361-DC49F0439630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4752" yWindow="2784" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1344" yWindow="1104" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COTIZACION" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Razón Social:</t>
   </si>
   <si>
-    <t>FechaRecepcion (opcional)</t>
-  </si>
-  <si>
     <t>Moneda</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Shampoo antipulgas 500ml</t>
+  </si>
+  <si>
+    <t>FechaEntrega</t>
   </si>
 </sst>
 </file>
@@ -271,7 +271,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -309,6 +309,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -710,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,12 +726,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="16">
         <v>21630</v>
@@ -744,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -778,7 +781,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="14">
         <v>20123456789</v>
@@ -787,7 +790,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="17">
-        <v>45992</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -795,10 +798,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="17">
+        <v>45980</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -806,44 +812,44 @@
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" t="s">
         <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -851,7 +857,7 @@
         <v>1019</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4">
         <v>30</v>
@@ -860,7 +866,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="5">
-        <f>IFERROR(C17*D17,"")</f>
+        <f t="shared" ref="E17:E23" si="0">IFERROR(C17*D17,"")</f>
         <v>270</v>
       </c>
     </row>
@@ -869,7 +875,7 @@
         <v>1028</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4">
         <v>50</v>
@@ -878,7 +884,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="5">
-        <f>IFERROR(C18*D18,"")</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
@@ -887,7 +893,7 @@
         <v>1020</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4">
         <v>40</v>
@@ -896,7 +902,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="5">
-        <f>IFERROR(C19*D19,"")</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
@@ -905,7 +911,7 @@
         <v>1033</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4">
         <v>60</v>
@@ -914,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="5">
-        <f>IFERROR(C20*D20,"")</f>
+        <f t="shared" si="0"/>
         <v>720</v>
       </c>
     </row>
@@ -923,7 +929,7 @@
         <v>1032</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4">
         <v>40</v>
@@ -932,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="5">
-        <f>IFERROR(C21*D21,"")</f>
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
     </row>
@@ -941,7 +947,7 @@
         <v>1033</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4">
         <v>50</v>
@@ -950,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="5">
-        <f>IFERROR(C22*D22,"")</f>
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
     </row>
@@ -959,7 +965,7 @@
         <v>1040</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="4">
         <v>80</v>
@@ -968,13 +974,13 @@
         <v>5</v>
       </c>
       <c r="E23" s="5">
-        <f>IFERROR(C23*D23,"")</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="6">
         <f>SUM(E17:E23)</f>
@@ -983,7 +989,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="6">
         <f>ROUND(E25*0.18,2)</f>
@@ -992,7 +998,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="7">
         <f>E25+E26</f>
@@ -1000,13 +1006,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="A29" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="34" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="11"/>
